--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FBBED1-C611-400D-825A-9BBA332730EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40908681-FF62-4DD6-B6BF-4796287CB32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,7 +152,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成页面组件化，学习git远程仓库</t>
+    <t>完成页面组件化、学习git远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成基础模块学习、学习git基础操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +671,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -732,7 +736,7 @@
         <v>43970</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40908681-FF62-4DD6-B6BF-4796287CB32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E9BA08-ACED-43DE-99F2-329B1A94BE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,15 +148,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成基础模块学习，学习git基础操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成页面组件化、学习git远程仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成基础模块学习、学习git基础操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习巩固git知识，发表随笔两篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背了首词，帘外雨潺潺，春意阑珊，罗衾不耐五更寒。梦里不知身是客，一晌贪欢。独自莫凭栏，无限江山，别时容易见时难。流水落花春去也，天上人间。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +675,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -736,7 +740,7 @@
         <v>43970</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -744,17 +748,23 @@
         <v>43971</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E9BA08-ACED-43DE-99F2-329B1A94BE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CDF959-6F24-41D8-8DCE-6D86BC5734D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>背了首词，帘外雨潺潺，春意阑珊，罗衾不耐五更寒。梦里不知身是客，一晌贪欢。独自莫凭栏，无限江山，别时容易见时难。流水落花春去也，天上人间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习vue基础，编写半篇随笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写了三篇随笔，复习总结了之前学习的vue基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天可能要划水，千万不要划水，没剩几天了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,19 +547,19 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -573,7 +585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -590,7 +602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -604,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -618,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -632,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -646,7 +658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -675,24 +687,24 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -703,7 +715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -711,7 +723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -719,7 +731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -727,7 +739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -735,7 +747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -743,7 +755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -751,7 +763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -759,60 +771,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CDF959-6F24-41D8-8DCE-6D86BC5734D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEEB56B-F284-408B-A822-E9FE1EE45CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,14 @@
   </si>
   <si>
     <t>明天可能要划水，千万不要划水，没剩几天了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水了一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一周噢噢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,19 +555,19 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="69.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -585,7 +593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -602,7 +610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -616,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -630,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -644,7 +652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -658,7 +666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -687,24 +695,24 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -715,7 +723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -723,7 +731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -731,7 +739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -739,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -747,7 +755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -755,7 +763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -763,7 +771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -771,7 +779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -782,7 +790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -793,47 +801,53 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEEB56B-F284-408B-A822-E9FE1EE45CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2107FCC-A855-4ACF-9015-8B2F139913D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>还有一周噢噢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习至组件prop，发表随笔两篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,19 +559,19 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -593,7 +597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -610,7 +614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -624,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -638,7 +642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -652,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -666,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -698,21 +702,21 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -723,7 +727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -731,7 +735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -739,7 +743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -747,7 +751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -755,7 +759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -763,7 +767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -771,7 +775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -779,7 +783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -790,7 +794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -801,7 +805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -812,42 +816,45 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2107FCC-A855-4ACF-9015-8B2F139913D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE5AF2E-A6F8-47C3-AE6D-FDF0313849EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,14 @@
   </si>
   <si>
     <t>学习至组件prop，发表随笔两篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件学习完毕，但仍有难点未克服。发表随笔一篇半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真难，先跳过去吧，回头再攻克，还有五天，注定失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +707,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -828,6 +836,12 @@
       <c r="A14" s="2">
         <v>43977</v>
       </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE5AF2E-A6F8-47C3-AE6D-FDF0313849EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD16FC9F-0E18-4284-9DEE-EA536D8701A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vue+element UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>半个月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,22 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linq、注入依赖、反射、委托、ajax、xml、结构类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间件、消息队列、缓存、多线程、分布式、redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>webapi、websocket、webservice、mvc、wcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熟练掌握</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完全掌握</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +165,34 @@
   </si>
   <si>
     <t>真难，先跳过去吧，回头再攻克，还有五天，注定失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：vue,node,webpack,vuex,ajax,axios,tooken,cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：c#基础-中间件，消息队列，多线程，分布式，linq，注入依赖，反射，委托，结构类，xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：redis缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端，框架-webapi、websocket、webservice、mvc、wcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做了学习计划，前端模块统一为1个月完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +279,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,22 +567,22 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -587,109 +590,109 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43997</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44012</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>43983</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>43997</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4">
         <v>44027</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4">
         <v>44034</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4">
         <v>44044</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4">
         <v>44075</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -704,173 +707,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43997</v>
       </c>
     </row>
   </sheetData>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD16FC9F-0E18-4284-9DEE-EA536D8701A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B69DA-9C17-4E13-9FEF-DA7F9976713B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,14 @@
   </si>
   <si>
     <t>重做了学习计划，前端模块统一为1个月完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习异步组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习至vue过渡、动画，并发表随笔一篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,10 +286,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -626,7 +634,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="4">
@@ -710,7 +718,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -721,11 +729,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -850,6 +858,9 @@
       <c r="A15" s="2">
         <v>43978</v>
       </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -857,6 +868,9 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B69DA-9C17-4E13-9FEF-DA7F9976713B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE32AA1-B167-4766-A2C0-C1A76973166C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE32AA1-B167-4766-A2C0-C1A76973166C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C54FC8-CB84-4606-84BA-25B689378F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,14 @@
   </si>
   <si>
     <t>学习至vue过渡、动画，并发表随笔一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习混入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习插件和过滤器，发表随笔一篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,19 +586,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -616,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -633,7 +641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -647,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -661,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -675,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -689,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -718,24 +726,24 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -746,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -754,7 +762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -762,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -770,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -778,7 +786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -786,7 +794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -794,7 +802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -802,7 +810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -813,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -824,7 +832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -835,7 +843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -843,7 +851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -854,7 +862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -865,7 +873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -873,92 +881,98 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C54FC8-CB84-4606-84BA-25B689378F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3167F6-0F2B-4877-8325-F47CBF237966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>学习插件和过滤器，发表随笔一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水了一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,19 +590,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -624,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -641,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -655,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -669,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -683,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -697,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -725,25 +729,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -754,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -762,7 +766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -770,7 +774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -778,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -786,7 +790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -794,7 +798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -802,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -810,7 +814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -821,7 +825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -832,7 +836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -843,7 +847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -851,7 +855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -862,7 +866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -873,7 +877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -881,7 +885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -889,7 +893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -897,82 +901,85 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3167F6-0F2B-4877-8325-F47CBF237966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DFC8BF-6005-4EAB-9C42-82EAD491CC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>水了一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习单文件组件和单元测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +734,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -913,6 +917,9 @@
       <c r="A20" s="2">
         <v>43983</v>
       </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DFC8BF-6005-4EAB-9C42-82EAD491CC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCBB45D-AFC1-43F3-94C4-C2EDB4151A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>学习单文件组件和单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单了解ts和环境配置，发表随笔一篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,19 +598,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -632,7 +636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -649,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -663,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -677,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -691,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -705,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -737,21 +741,21 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -762,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -770,7 +774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -778,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -786,7 +790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -794,7 +798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -802,7 +806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -810,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -818,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -829,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -840,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -851,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -859,7 +863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -870,7 +874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -881,7 +885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -889,7 +893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -897,7 +901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -905,7 +909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -913,7 +917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -921,72 +925,75 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCBB45D-AFC1-43F3-94C4-C2EDB4151A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C63F13-FC66-43B7-93C0-7B924CB17DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前端：vue,node,webpack,vuex,ajax,axios,tooken,cookie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端：c#基础-中间件，消息队列，多线程，分布式，linq，注入依赖，反射，委托，结构类，xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +217,10 @@
   </si>
   <si>
     <t>简单了解ts和环境配置，发表随笔一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：vue,node,webpack,vuex,v-router,ajax,axios,tooken,cookie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,23 +594,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -636,9 +636,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4">
         <v>43997</v>
@@ -653,9 +653,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4">
         <v>44012</v>
@@ -667,9 +667,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4">
         <v>44027</v>
@@ -681,9 +681,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4">
         <v>44034</v>
@@ -695,9 +695,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4">
         <v>44044</v>
@@ -709,9 +709,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4">
         <v>44075</v>
@@ -737,25 +737,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -774,7 +774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -782,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -790,7 +790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -798,7 +798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -806,7 +806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -814,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -822,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -833,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -844,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -855,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -863,7 +863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -874,126 +874,126 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C63F13-FC66-43B7-93C0-7B924CB17DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535448FE-0BB4-4EAA-8E9B-E2C851C3FD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,10 @@
   </si>
   <si>
     <t>前端：vue,node,webpack,vuex,v-router,ajax,axios,tooken,cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue-router</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,23 +598,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -636,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -653,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -667,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -681,7 +685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -695,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -709,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -737,25 +741,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -766,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -774,7 +778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -782,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -790,7 +794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -798,7 +802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -806,7 +810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -814,7 +818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -822,7 +826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -833,7 +837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -844,7 +848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -855,7 +859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -863,7 +867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -874,7 +878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -885,7 +889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -893,7 +897,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -901,7 +905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -909,7 +913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -917,7 +921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -925,7 +929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -933,67 +937,70 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535448FE-0BB4-4EAA-8E9B-E2C851C3FD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D605F39E-4607-4380-9DAE-215A9F6C2C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>学习vue-router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue-router基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +746,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -949,6 +953,9 @@
       <c r="A23" s="2">
         <v>43986</v>
       </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D605F39E-4607-4380-9DAE-215A9F6C2C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4DAC11-3F8B-4863-A5AF-E20CCFFFFD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>学习vue-router基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成vue-router简单学习，发表随笔一篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,19 +610,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -644,7 +648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -661,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -675,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -689,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -703,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -717,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -745,25 +749,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -774,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -782,7 +786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -790,7 +794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -798,7 +802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -806,7 +810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -814,7 +818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -822,7 +826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -830,7 +834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -841,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -852,7 +856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -863,7 +867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -871,7 +875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -882,7 +886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -893,7 +897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -901,7 +905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -909,7 +913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -917,7 +921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -925,7 +929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -933,7 +937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -941,7 +945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -949,7 +953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -957,57 +961,60 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4DAC11-3F8B-4863-A5AF-E20CCFFFFD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D571D6-EC35-4739-BBFF-6334270E67EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,14 @@
   </si>
   <si>
     <t>完成vue-router简单学习，发表随笔一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单学习vuex，只学了一个小时，其他时间在水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天完成简单学习目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -905,7 +913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -913,7 +921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -921,7 +929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -929,7 +937,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -937,7 +945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -945,7 +953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -953,7 +961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -961,7 +969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -969,42 +977,48 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D571D6-EC35-4739-BBFF-6334270E67EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83294AA0-5FFC-4F77-98D4-6A789CD36D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>三天完成简单学习目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习完成Vuex核心概念</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,19 +622,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -656,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -673,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -687,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -701,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -715,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -729,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -758,24 +762,24 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -786,7 +790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -794,7 +798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -802,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -810,7 +814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -818,7 +822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -826,7 +830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -834,7 +838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -842,7 +846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -853,7 +857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -864,7 +868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -875,7 +879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -883,7 +887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -894,7 +898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -905,7 +909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -913,7 +917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -921,7 +925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -929,7 +933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -937,7 +941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -945,7 +949,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -953,7 +957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -961,7 +965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -969,7 +973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -977,7 +981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -988,47 +992,53 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83294AA0-5FFC-4F77-98D4-6A789CD36D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7425577B-D5EF-4814-92D9-A396E76FB87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,14 @@
   </si>
   <si>
     <t>学习完成Vuex核心概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vuex的Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表vuex随笔一篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,19 +630,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -660,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -677,7 +685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -691,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -705,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -719,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -733,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -762,24 +770,24 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -790,7 +798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -798,7 +806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -806,7 +814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -814,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -822,7 +830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -830,7 +838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -838,7 +846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -846,7 +854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -857,7 +865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -868,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -879,7 +887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -887,7 +895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -898,7 +906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -909,7 +917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -917,7 +925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -925,7 +933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -933,7 +941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -941,7 +949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -949,7 +957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -957,7 +965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -965,7 +973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -973,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -981,7 +989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1008,37 +1016,43 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7425577B-D5EF-4814-92D9-A396E76FB87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED44560F-91C7-436F-BECD-6C643D52B3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发表vuex随笔一篇</t>
+    <t>发表vuex随笔一篇，补充vue边界随笔半篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,19 +630,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -685,7 +685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -770,24 +770,24 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -798,7 +798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -814,7 +814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -822,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -830,7 +830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -846,7 +846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -854,7 +854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -865,7 +865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -876,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -887,7 +887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -906,7 +906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -917,7 +917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -925,7 +925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -933,7 +933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -941,7 +941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -949,7 +949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -957,7 +957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -965,7 +965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -973,7 +973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -981,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -989,7 +989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1032,27 +1032,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED44560F-91C7-436F-BECD-6C643D52B3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A065A-4FD1-4D03-BDDE-B9191C06997A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>发表vuex随笔一篇，补充vue边界随笔半篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水了一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周马上就结束了，延迟了半个月还是没行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习自定义指令和渲染函数，发表随笔一篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,19 +642,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -668,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -685,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -699,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -713,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -727,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -741,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -769,25 +781,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -798,7 +810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -806,7 +818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -814,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -822,7 +834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -830,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -838,7 +850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -846,7 +858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -854,7 +866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -865,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -876,7 +888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -887,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -895,7 +907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -906,7 +918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -917,7 +929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -925,7 +937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -933,7 +945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -941,7 +953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -949,7 +961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -957,7 +969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -965,7 +977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -973,7 +985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -981,7 +993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1000,7 +1012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1032,27 +1044,36 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A065A-4FD1-4D03-BDDE-B9191C06997A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2729FA-422C-483A-9B08-6824C8EFEA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,11 +260,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这周马上就结束了，延迟了半个月还是没行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习自定义指令和渲染函数，发表随笔一篇</t>
+    <t>学习自定义指令和渲染函数、响应式原理和异步更新队列，发表随笔两篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue到此结束，比预期晚了一周左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,19 +642,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -697,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -781,25 +781,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -810,7 +810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -818,7 +818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -826,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -834,7 +834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -842,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -850,7 +850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -858,7 +858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -866,7 +866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -877,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -888,7 +888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -899,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -907,7 +907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -918,7 +918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -929,7 +929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -937,7 +937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -945,7 +945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -953,7 +953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -961,7 +961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -969,7 +969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -977,7 +977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -985,7 +985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -993,7 +993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1052,28 +1052,28 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2729FA-422C-483A-9B08-6824C8EFEA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15082713-6CFA-4C00-8535-B94D8EE0EF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,14 @@
   </si>
   <si>
     <t>vue到此结束，比预期晚了一周左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水了一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习ajax，学习axios并封装，发表随笔一篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +790,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1067,13 +1075,19 @@
       <c r="A32" s="2">
         <v>43995</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15082713-6CFA-4C00-8535-B94D8EE0EF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2677C803-3319-4C50-AA2C-AF52B2246298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>复习ajax，学习axios并封装，发表随笔一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改sf数据库，学习token、session、cookie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,6 +1095,9 @@
       <c r="A34" s="2">
         <v>43997</v>
       </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2677C803-3319-4C50-AA2C-AF52B2246298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09985DC-D9C9-4E69-B772-5DD52FD43052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Vue" sheetId="2" r:id="rId2"/>
+    <sheet name="后端杂记" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +278,14 @@
   </si>
   <si>
     <t>修改sf数据库，学习token、session、cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期第一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,22 +660,22 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -692,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -709,7 +718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -722,8 +731,11 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -737,7 +749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -751,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -765,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -783,6 +795,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" location="vue!A1" display="详情" xr:uid="{B754496C-D6E6-467F-BA51-69EE0548CB02}"/>
+    <hyperlink ref="H3" location="后端杂记!A1" display="详情" xr:uid="{E235A5AA-FBB0-4CC8-8474-4535D9B4C342}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -791,27 +804,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.75" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -822,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -830,7 +843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -838,7 +851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -846,7 +859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -854,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -862,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -870,7 +883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -878,7 +891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -889,7 +902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -900,7 +913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -911,7 +924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -919,7 +932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -930,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -941,7 +954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -949,7 +962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -957,7 +970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -965,7 +978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -973,7 +986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -981,7 +994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -989,7 +1002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1005,7 +1018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1013,7 +1026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1032,7 +1045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1040,7 +1053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1048,7 +1061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1056,7 +1069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1064,7 +1077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1075,7 +1088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1083,7 +1096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1091,12 +1104,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
       <c r="B34" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43998</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1107,4 +1128,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5A1E52-A18C-4A58-97F3-9B19737E68C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09985DC-D9C9-4E69-B772-5DD52FD43052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF96689-5217-449C-93C8-E82E189F8DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,10 @@
   </si>
   <si>
     <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成用户的新增和修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,19 +667,19 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -701,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -718,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -735,7 +739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -749,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -763,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -777,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -806,25 +810,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.75" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -835,7 +839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -843,7 +847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -851,7 +855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -859,7 +863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -867,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -875,7 +879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -883,7 +887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -891,7 +895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -902,7 +906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -913,7 +917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -924,7 +928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -932,7 +936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -943,7 +947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -954,7 +958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -962,7 +966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -970,7 +974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -978,7 +982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -986,7 +990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -994,7 +998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1061,7 +1065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1112,9 +1116,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43998</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -1136,7 +1143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF96689-5217-449C-93C8-E82E189F8DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C8C6D-1DF5-424C-A4A2-1CA506CE8E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,14 @@
   </si>
   <si>
     <t>完成用户的新增和修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期第二天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成token学习并发表随笔半篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1125,6 +1133,17 @@
       </c>
       <c r="C35" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C8C6D-1DF5-424C-A4A2-1CA506CE8E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AB7FFF-CAC6-4F2F-ABFF-E35F09FCDE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,14 @@
   </si>
   <si>
     <t>完成token学习并发表随笔半篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期第三天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1152,17 @@
       </c>
       <c r="C36" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AB7FFF-CAC6-4F2F-ABFF-E35F09FCDE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4633155-40D2-4120-B0DD-3A8D27F8EB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,14 @@
   </si>
   <si>
     <t>延期第三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装登陆退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期第四天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,19 +691,19 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -721,7 +729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -738,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -755,7 +763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -769,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -783,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -797,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -824,27 +832,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.75" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -855,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -863,7 +871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -871,7 +879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -879,7 +887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -887,7 +895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -895,7 +903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -903,7 +911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -911,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -922,7 +930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -933,7 +941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -944,7 +952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -952,7 +960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -963,7 +971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -974,7 +982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -982,7 +990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -990,7 +998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -998,7 +1006,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1022,7 +1030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1065,7 +1073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1097,7 +1105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1124,7 +1132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1143,7 +1151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1154,7 +1162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1163,6 +1171,17 @@
       </c>
       <c r="C37" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1200,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4633155-40D2-4120-B0DD-3A8D27F8EB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61621559-A11A-4844-B9C0-4CA87140F8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,14 @@
   </si>
   <si>
     <t>延期第四天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加无痛刷新token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期第五天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,19 +699,19 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -729,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -746,7 +754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -763,7 +771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -777,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -791,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -805,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -832,27 +840,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.75" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -863,7 +871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -871,7 +879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -879,7 +887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -887,7 +895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -895,7 +903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -903,7 +911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -911,7 +919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -919,7 +927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -930,7 +938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -941,7 +949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -952,7 +960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -960,7 +968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -971,7 +979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -982,7 +990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -990,7 +998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -998,7 +1006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1022,7 +1030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1054,7 +1062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1065,7 +1073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1097,7 +1105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1124,7 +1132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1151,7 +1159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1162,7 +1170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1182,6 +1190,17 @@
       </c>
       <c r="C38" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61621559-A11A-4844-B9C0-4CA87140F8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF761691-22C9-4AF4-BE79-EA1ABD4A28C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +322,22 @@
   </si>
   <si>
     <t>延期第五天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成身份验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期第六天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端杂记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,23 +711,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -737,7 +753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -750,11 +766,20 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="2">
+        <v>44003</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -771,7 +796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -785,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -799,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -813,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -840,27 +865,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA5721-6C09-4C1A-91BD-447448DD9369}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -871,7 +896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -879,7 +904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -887,7 +912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -895,7 +920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -903,7 +928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -911,7 +936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -919,7 +944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -927,7 +952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -938,7 +963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -949,7 +974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -960,7 +985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -968,7 +993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -979,7 +1004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -990,7 +1015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -998,7 +1023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -1006,7 +1031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1014,7 +1039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1022,7 +1047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1030,7 +1055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1038,7 +1063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1046,7 +1071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1054,7 +1079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1062,7 +1087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1073,7 +1098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1081,7 +1106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1089,7 +1114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1097,7 +1122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1105,7 +1130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1113,7 +1138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1124,7 +1149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1132,7 +1157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1140,7 +1165,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1148,7 +1173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1159,7 +1184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1170,7 +1195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1181,7 +1206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1192,7 +1217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
@@ -1201,6 +1226,17 @@
       </c>
       <c r="C39" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1215,12 +1251,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5A1E52-A18C-4A58-97F3-9B19737E68C7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44022</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF761691-22C9-4AF4-BE79-EA1ABD4A28C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422AA07F-01F4-43D4-B129-18A191980AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,14 @@
   </si>
   <si>
     <t>36天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水了一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习log4net，并发表随笔一篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,19 +723,19 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -753,7 +761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -779,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -796,7 +804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -810,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -824,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -838,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -871,21 +879,21 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -896,7 +904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -904,7 +912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -912,7 +920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -920,7 +928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -928,7 +936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -936,7 +944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -944,7 +952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -952,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -963,7 +971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -974,7 +982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -985,7 +993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -993,7 +1001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -1004,7 +1012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -1015,7 +1023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1039,7 +1047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1087,7 +1095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1106,7 +1114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1130,7 +1138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1138,7 +1146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1157,7 +1165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1165,7 +1173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1184,7 +1192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1217,7 +1225,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
@@ -1228,7 +1236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44003</v>
       </c>
@@ -1254,24 +1262,24 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1282,97 +1290,103 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44004</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44005</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44006</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44007</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44008</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44009</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44010</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44013</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44014</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44015</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44017</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44022</v>
       </c>
@@ -1383,5 +1397,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422AA07F-01F4-43D4-B129-18A191980AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B78D2-3BD6-400F-8F6F-55C012CB28AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,10 @@
   </si>
   <si>
     <t>学习log4net，并发表随笔一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单了解消息队列及其应用场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,23 +723,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -761,7 +765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -787,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -804,7 +808,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -818,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -832,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -846,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -879,21 +883,21 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -904,7 +908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -912,7 +916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -920,7 +924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -928,7 +932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -936,7 +940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -944,7 +948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -952,7 +956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -960,7 +964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -971,7 +975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -982,7 +986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -993,7 +997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1095,7 +1099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44003</v>
       </c>
@@ -1262,24 +1266,24 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44004</v>
       </c>
@@ -1298,7 +1302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44005</v>
       </c>
@@ -1306,87 +1310,90 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44006</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44007</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44008</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44009</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44010</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44013</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44014</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44015</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44017</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44022</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B78D2-3BD6-400F-8F6F-55C012CB28AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75055731-D95C-41E2-A7BD-13E6219B13CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3264" yWindow="420" windowWidth="16776" windowHeight="11124" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,14 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>半个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熟练掌握</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,14 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实际完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,18 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端：c#基础-中间件，消息队列，多线程，分布式，linq，注入依赖，反射，委托，结构类，xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：redis缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端：ef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端：单元测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +322,42 @@
   </si>
   <si>
     <t>简单了解消息队列及其应用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：c#基础-中间件，消息队列，linq，注入依赖，反射，委托，结构类，xml，redis缓存，ef，多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9点跳绳40分钟，拉伸十分钟，洗澡十分钟。十点学习，十二点必须睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单了解多线程和异步并修改学习计划，设计简单运动计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,25 +729,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -747,121 +755,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4">
         <v>43997</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <v>44003</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="B3" s="4">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4">
-        <v>44027</v>
+        <v>44044</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4">
-        <v>44034</v>
+        <v>44075</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44044</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44075</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -883,372 +878,372 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44003</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1266,134 +1261,140 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44004</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44005</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44006</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44007</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44008</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44009</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44010</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44013</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44014</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44015</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44017</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44022</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75055731-D95C-41E2-A7BD-13E6219B13CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117318E-F556-4854-B13B-0C6153EF665B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="420" windowWidth="16776" windowHeight="11124" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3264" yWindow="420" windowWidth="16776" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端：c#基础-中间件，消息队列，linq，注入依赖，反射，委托，结构类，xml，redis缓存，ef，多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,6 +354,10 @@
   </si>
   <si>
     <t>简单了解多线程和异步并修改学习计划，设计简单运动计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：c#基础-中间件，消息队列，xml，linq，注入依赖，反射，委托，结构类，redis缓存，ef，多线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
         <v>43997</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4">
         <v>44043</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>44044</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>44075</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -1260,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5A1E52-A18C-4A58-97F3-9B19737E68C7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1318,10 +1318,10 @@
         <v>44007</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117318E-F556-4854-B13B-0C6153EF665B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074E6AB5-4281-4A08-B1E8-5A72F35CE3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="420" windowWidth="16776" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,23 +731,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>82</v>
       </c>
@@ -816,7 +816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -830,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -844,17 +844,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -878,21 +878,21 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -903,7 +903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -919,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -927,7 +927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -935,7 +935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -943,7 +943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -951,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -959,7 +959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -970,7 +970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -992,7 +992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44003</v>
       </c>
@@ -1260,25 +1260,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5A1E52-A18C-4A58-97F3-9B19737E68C7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44004</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44005</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44006</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44007</v>
       </c>
@@ -1324,77 +1324,95 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44008</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44009</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44010</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44013</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44014</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44015</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44017</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44022</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074E6AB5-4281-4A08-B1E8-5A72F35CE3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68301A6F-7A0C-468C-8118-8654FB5ECA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,14 @@
   </si>
   <si>
     <t>后端：c#基础-中间件，消息队列，xml，linq，注入依赖，反射，委托，结构类，redis缓存，ef，多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前端布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前端菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,19 +743,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -773,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -799,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>82</v>
       </c>
@@ -816,7 +824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -830,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -844,17 +852,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -878,21 +886,21 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -903,7 +911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -911,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -919,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -927,7 +935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -935,7 +943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -943,7 +951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -951,7 +959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -959,7 +967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -970,7 +978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -981,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -1022,7 +1030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1054,7 +1062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1078,7 +1086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1086,7 +1094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1113,7 +1121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1121,7 +1129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1145,7 +1153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1180,7 +1188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1202,7 +1210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1213,7 +1221,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
@@ -1235,7 +1243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44003</v>
       </c>
@@ -1261,24 +1269,24 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44004</v>
       </c>
@@ -1297,7 +1305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44005</v>
       </c>
@@ -1305,7 +1313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44006</v>
       </c>
@@ -1313,7 +1321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44007</v>
       </c>
@@ -1324,7 +1332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44008</v>
       </c>
@@ -1332,7 +1340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44009</v>
       </c>
@@ -1340,7 +1348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44010</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
@@ -1356,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
@@ -1364,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44013</v>
       </c>
@@ -1372,47 +1380,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44014</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44015</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44017</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44022</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68301A6F-7A0C-468C-8118-8654FB5ECA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F84E0-95EE-41D7-8351-F80636005BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,14 @@
   </si>
   <si>
     <t>修改前端菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习xml，并发表随笔一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歇息了那么久，再战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1277,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1400,6 +1408,12 @@
       <c r="A15" s="2">
         <v>44016</v>
       </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F84E0-95EE-41D7-8351-F80636005BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F10833C-5E1F-458F-944C-C2C8C27127C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,10 @@
   </si>
   <si>
     <t>歇息了那么久，再战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习linq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +752,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1281,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1419,6 +1423,9 @@
       <c r="A16" s="2">
         <v>44017</v>
       </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F10833C-5E1F-458F-944C-C2C8C27127C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A43BFF7-3649-40B3-9E9E-330CB37CFEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,10 @@
   </si>
   <si>
     <t>学习linq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表随笔一篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,19 +759,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -793,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -819,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>82</v>
       </c>
@@ -836,7 +840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -850,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -864,17 +868,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -898,21 +902,21 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -923,7 +927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -931,7 +935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -939,7 +943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -947,7 +951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -955,7 +959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -963,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -971,7 +975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -979,7 +983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -990,7 +994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1133,7 +1137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44003</v>
       </c>
@@ -1281,24 +1285,24 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44004</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44005</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44006</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44007</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44008</v>
       </c>
@@ -1352,7 +1356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44009</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44010</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44013</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44014</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44015</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44016</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44017</v>
       </c>
@@ -1427,27 +1431,33 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44022</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A43BFF7-3649-40B3-9E9E-330CB37CFEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B1221C-0C62-4DCA-AB3C-B41A8ABC29F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端：c#基础-中间件，消息队列，xml，linq，注入依赖，反射，委托，结构类，redis缓存，ef，多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改前端布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,6 +378,10 @@
   </si>
   <si>
     <t>发表随笔一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：c#基础-中间件，消息队列，xml，linq，委托，接口，反射，结构类，注入依赖，redis缓存，ef，多线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -825,7 +825,7 @@
     </row>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4">
         <v>44043</v>
@@ -1284,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5A1E52-A18C-4A58-97F3-9B19737E68C7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1401,7 +1401,7 @@
         <v>44014</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1409,7 +1409,7 @@
         <v>44015</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1417,10 +1417,10 @@
         <v>44016</v>
       </c>
       <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>44017</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1444,7 +1444,7 @@
         <v>44019</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B1221C-0C62-4DCA-AB3C-B41A8ABC29F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F2C6F-6A80-4715-9BFD-2A618BAC4C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,7 +381,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端：c#基础-中间件，消息队列，xml，linq，委托，接口，反射，结构类，注入依赖，redis缓存，ef，多线程</t>
+    <t>三载春秋，一事无成。欲变其道，哀之鉴之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习委托并修改随笔，复习接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端：c#基础-中间件，消息队列，xml，linq，委托，接口，反射，结构类，元组，字典，注入依赖，redis缓存，ef，多线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,7 +764,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -825,7 +833,7 @@
     </row>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4">
         <v>44043</v>
@@ -1282,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5A1E52-A18C-4A58-97F3-9B19737E68C7}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1431,7 +1439,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
@@ -1439,7 +1447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
@@ -1447,19 +1455,145 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44022</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44023</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44024</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44043</v>
       </c>
     </row>
   </sheetData>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F2C6F-6A80-4715-9BFD-2A618BAC4C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B634AA-2E2D-41D7-82CD-750CB836F483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,10 @@
   </si>
   <si>
     <t>后端：c#基础-中间件，消息队列，xml，linq，委托，接口，反射，结构类，元组，字典，注入依赖，redis缓存，ef，多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习反射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,23 +767,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -805,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -831,7 +835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>90</v>
       </c>
@@ -848,7 +852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -862,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -876,17 +880,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -910,21 +914,21 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -935,7 +939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -943,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -951,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -959,7 +963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -967,7 +971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -975,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -983,7 +987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -991,7 +995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -1013,7 +1017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44003</v>
       </c>
@@ -1292,25 +1296,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5A1E52-A18C-4A58-97F3-9B19737E68C7}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44004</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44005</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44006</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44007</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44008</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44009</v>
       </c>
@@ -1372,7 +1376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44010</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44013</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44014</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44015</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44016</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44017</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44022</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44023</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44024</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44025</v>
       </c>
@@ -1506,92 +1510,98 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44026</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44027</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44028</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44029</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44030</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44031</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44032</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44033</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44034</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44035</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44036</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44037</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44038</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44039</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44040</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44041</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44042</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44043</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B634AA-2E2D-41D7-82CD-750CB836F483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A971FA-CFDE-441F-B468-56E0AAAFF64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,14 @@
   </si>
   <si>
     <t>学习反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习结构类，元组，字典，注入依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,22 +776,22 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.25" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -809,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -835,7 +843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>90</v>
       </c>
@@ -852,7 +860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -866,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -880,17 +888,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -914,21 +922,21 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -939,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -947,7 +955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -955,7 +963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -963,7 +971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -971,7 +979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -979,7 +987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -987,7 +995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -1036,7 +1044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -1058,7 +1066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1106,7 +1114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1130,7 +1138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1157,7 +1165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1165,7 +1173,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1181,7 +1189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1192,7 +1200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1200,7 +1208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1249,7 +1257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44003</v>
       </c>
@@ -1297,24 +1305,24 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44004</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44005</v>
       </c>
@@ -1341,7 +1349,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44006</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44007</v>
       </c>
@@ -1360,7 +1368,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44008</v>
       </c>
@@ -1368,7 +1376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44009</v>
       </c>
@@ -1376,7 +1384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44010</v>
       </c>
@@ -1384,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
@@ -1392,7 +1400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
@@ -1400,7 +1408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44013</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44014</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44015</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44016</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44017</v>
       </c>
@@ -1443,7 +1451,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
@@ -1459,7 +1467,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44022</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44023</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44024</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44025</v>
       </c>
@@ -1510,7 +1518,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44026</v>
       </c>
@@ -1518,7 +1526,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44027</v>
       </c>
@@ -1526,82 +1534,94 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44028</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44029</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44030</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44031</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44032</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44033</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44034</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44035</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44036</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44037</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44038</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44039</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44040</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44041</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44042</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44043</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work2\SnailFis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A971FA-CFDE-441F-B468-56E0AAAFF64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E702384F-C650-4F01-A6FD-A65A8E2A8A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,10 @@
   </si>
   <si>
     <t>学习ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单学习wcf和ef事务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,19 +783,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.25" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -817,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -843,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>90</v>
       </c>
@@ -860,7 +864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -874,7 +878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -888,17 +892,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -922,21 +926,21 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -947,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43966</v>
       </c>
@@ -955,7 +959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43967</v>
       </c>
@@ -963,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43968</v>
       </c>
@@ -971,7 +975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43969</v>
       </c>
@@ -979,7 +983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -987,7 +991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43971</v>
       </c>
@@ -995,7 +999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43972</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43973</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43975</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43976</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43977</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43978</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43979</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43980</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43981</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43982</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43984</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43985</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43986</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43987</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43988</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43989</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43990</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43991</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43992</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43993</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43994</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43995</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43996</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43997</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43998</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43999</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44000</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44001</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44002</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44003</v>
       </c>
@@ -1305,24 +1309,24 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="70.58203125" customWidth="1"/>
-    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44004</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44005</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44006</v>
       </c>
@@ -1357,7 +1361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44007</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44008</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44009</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44010</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44013</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44014</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44015</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44016</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44017</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44018</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44019</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44020</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44021</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44022</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44023</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44024</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44025</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44026</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44027</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44028</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44029</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44030</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44031</v>
       </c>
@@ -1566,62 +1570,65 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44032</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44033</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44034</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44035</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44036</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44037</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44038</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44039</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44040</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44041</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44042</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44043</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E702384F-C650-4F01-A6FD-A65A8E2A8A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8832B87E-33F6-472A-8890-BC15971EE406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,10 @@
   </si>
   <si>
     <t>简单学习wcf和ef事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单学习redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,7 +1313,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1582,6 +1586,9 @@
       <c r="A32" s="2">
         <v>44033</v>
       </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8832B87E-33F6-472A-8890-BC15971EE406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69B1722-BF04-4F53-883A-5239D68C30E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,14 @@
   </si>
   <si>
     <t>简单学习redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写redis随笔半篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1313,7 +1321,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1590,52 +1598,58 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44034</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44035</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44036</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44037</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44038</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44039</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44040</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44041</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44042</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44043</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69B1722-BF04-4F53-883A-5239D68C30E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3BB4C8-C889-48EA-8E9D-7AD327FC70D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,10 @@
   </si>
   <si>
     <t>安装redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写redis帮助类，并补全redis随笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,6 +1622,9 @@
       <c r="A35" s="2">
         <v>44036</v>
       </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3BB4C8-C889-48EA-8E9D-7AD327FC70D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D7027F-683C-4755-A355-2C17384D3DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,14 @@
   </si>
   <si>
     <t>编写redis帮助类，并补全redis随笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数一数，水了半个月，唉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又是两天，虽然事出有因，但终究是没学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5A1E52-A18C-4A58-97F3-9B19737E68C7}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1610,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44034</v>
       </c>
@@ -1610,7 +1618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44035</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44036</v>
       </c>
@@ -1626,37 +1634,49 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44037</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44038</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44039</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44040</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44041</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44042</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44043</v>
       </c>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D7027F-683C-4755-A355-2C17384D3DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0193F614-48BA-4F6D-B495-C568F01550E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +430,14 @@
   </si>
   <si>
     <t>又是两天，虽然事出有因，但终究是没学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习多线程，复习c#基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,7 +1341,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1660,10 +1668,16 @@
       <c r="A38" s="2">
         <v>44039</v>
       </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44040</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work2\SnailFis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0193F614-48BA-4F6D-B495-C568F01550E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576B8AC-9D7F-45D0-9FCB-9DD83F76512C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>学习多线程，复习c#基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水了一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像极了知道自己在锅里的温水青蛙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1341,7 +1353,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1684,10 +1696,19 @@
       <c r="A40" s="2">
         <v>44041</v>
       </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44042</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
